--- a/biology/Botanique/Grande_brize/Grande_brize.xlsx
+++ b/biology/Botanique/Grande_brize/Grande_brize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Briza maxima
 La Grande brize ou Grande amourette (Briza maxima) est une espèce de plantes herbacées annuelles de la famille des Poaceae (graminées). Elle est originaire d'Afrique du Nord, des Açores, d'Asie occidentale et du sud de l'Europe et est cultivée ou naturalisée dans les îles Britanniques, en Australasie, dans l'ouest des États-Unis, en Amérique centrale et du Sud et à Hawaii.
@@ -513,10 +525,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plante ornementale. Elle est parfois cultivée comme plante annuelle ornementale, souvent plantée dans les rocailles; elle est appréciée pour la confection de bouquets secs[1].
-Plante fourragère. Sa valeur alimentaire est médiocre; on la rencontre dans les prairies permanentes surtout en sol acide et séchant[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plante ornementale. Elle est parfois cultivée comme plante annuelle ornementale, souvent plantée dans les rocailles; elle est appréciée pour la confection de bouquets secs.
+Plante fourragère. Sa valeur alimentaire est médiocre; on la rencontre dans les prairies permanentes surtout en sol acide et séchant.</t>
         </is>
       </c>
     </row>
